--- a/results/Px5.xlsx
+++ b/results/Px5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sx5standings\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62FD6D7-CD51-4E9A-BADE-0C73391A87CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E1B6EC-E0CD-4341-A6D9-D4B5D9790214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="198">
   <si>
     <r>
       <rPr>
@@ -1933,6 +1933,9 @@
   </si>
   <si>
     <t>No.</t>
+  </si>
+  <si>
+    <t>Gender</t>
   </si>
 </sst>
 </file>
@@ -2415,10 +2418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J86"/>
+  <dimension ref="A1:K86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2434,7 +2437,7 @@
     <col min="10" max="10" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>192</v>
       </c>
@@ -2465,8 +2468,11 @@
       <c r="J1" s="8" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K1" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2496,8 +2502,12 @@
         <f>TEXT(F2,"hh:mm:ss")</f>
         <v>00:20:59</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K2" t="str">
+        <f>IF(LEFT(D2,1)="M","M","F")</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -2527,8 +2537,12 @@
         <f t="shared" ref="J3:J66" si="0">TEXT(F3,"hh:mm:ss")</f>
         <v>00:21:09</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K66" si="1">IF(LEFT(D3,1)="M","M","F")</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -2558,8 +2572,12 @@
         <f t="shared" si="0"/>
         <v>00:21:16</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K4" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -2589,8 +2607,12 @@
         <f t="shared" si="0"/>
         <v>00:21:37</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K5" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -2622,8 +2644,12 @@
         <f t="shared" si="0"/>
         <v>00:22:11</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K6" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -2653,8 +2679,12 @@
         <f t="shared" si="0"/>
         <v>00:22:52</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K7" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -2684,8 +2714,12 @@
         <f t="shared" si="0"/>
         <v>00:22:55</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K8" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -2715,8 +2749,12 @@
         <f t="shared" si="0"/>
         <v>00:22:56</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K9" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -2748,8 +2786,12 @@
         <f t="shared" si="0"/>
         <v>00:22:58</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K10" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -2781,8 +2823,12 @@
         <f t="shared" si="0"/>
         <v>00:23:09</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K11" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -2814,8 +2860,12 @@
         <f t="shared" si="0"/>
         <v>00:23:41</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K12" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -2845,8 +2895,12 @@
         <f t="shared" si="0"/>
         <v>00:23:48</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K13" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
@@ -2878,8 +2932,12 @@
         <f t="shared" si="0"/>
         <v>00:23:58</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K14" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -2909,8 +2967,12 @@
         <f t="shared" si="0"/>
         <v>00:24:01</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K15" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
@@ -2940,8 +3002,12 @@
         <f t="shared" si="0"/>
         <v>00:24:04</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K16" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
@@ -2973,8 +3039,12 @@
         <f t="shared" si="0"/>
         <v>00:24:09</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K17" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>42</v>
       </c>
@@ -3006,8 +3076,12 @@
         <f t="shared" si="0"/>
         <v>00:24:20</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K18" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>45</v>
       </c>
@@ -3037,8 +3111,12 @@
         <f t="shared" si="0"/>
         <v>00:24:47</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K19" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>47</v>
       </c>
@@ -3068,8 +3146,12 @@
         <f t="shared" si="0"/>
         <v>00:24:50</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K20" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>49</v>
       </c>
@@ -3101,8 +3183,12 @@
         <f t="shared" si="0"/>
         <v>00:25:23</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K21" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>52</v>
       </c>
@@ -3132,8 +3218,12 @@
         <f t="shared" si="0"/>
         <v>00:25:35</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K22" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>54</v>
       </c>
@@ -3163,8 +3253,12 @@
         <f t="shared" si="0"/>
         <v>00:26:19</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K23" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
@@ -3194,8 +3288,12 @@
         <f t="shared" si="0"/>
         <v>00:26:27</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K24" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>58</v>
       </c>
@@ -3225,8 +3323,12 @@
         <f t="shared" si="0"/>
         <v>00:26:32</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K25" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>60</v>
       </c>
@@ -3258,8 +3360,12 @@
         <f t="shared" si="0"/>
         <v>00:26:39</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K26" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>63</v>
       </c>
@@ -3289,8 +3395,12 @@
         <f t="shared" si="0"/>
         <v>00:26:44</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K27" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>65</v>
       </c>
@@ -3322,8 +3432,12 @@
         <f t="shared" si="0"/>
         <v>00:27:07</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K28" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>68</v>
       </c>
@@ -3355,8 +3469,12 @@
         <f t="shared" si="0"/>
         <v>00:27:15</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K29" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>71</v>
       </c>
@@ -3386,8 +3504,12 @@
         <f t="shared" si="0"/>
         <v>00:27:21</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K30" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>73</v>
       </c>
@@ -3417,8 +3539,12 @@
         <f t="shared" si="0"/>
         <v>00:27:27</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K31" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>76</v>
       </c>
@@ -3450,8 +3576,12 @@
         <f t="shared" si="0"/>
         <v>00:27:55</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K32" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>79</v>
       </c>
@@ -3481,8 +3611,12 @@
         <f t="shared" si="0"/>
         <v>00:27:57</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K33" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>81</v>
       </c>
@@ -3512,8 +3646,12 @@
         <f t="shared" si="0"/>
         <v>00:28:00</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K34" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>58</v>
       </c>
@@ -3545,8 +3683,12 @@
         <f t="shared" si="0"/>
         <v>00:28:07</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K35" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>79</v>
       </c>
@@ -3578,8 +3720,12 @@
         <f t="shared" si="0"/>
         <v>00:28:11</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K36" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>85</v>
       </c>
@@ -3609,8 +3755,12 @@
         <f t="shared" si="0"/>
         <v>00:28:42</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K37" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>86</v>
       </c>
@@ -3640,8 +3790,12 @@
         <f t="shared" si="0"/>
         <v>00:28:49</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K38" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>88</v>
       </c>
@@ -3671,8 +3825,12 @@
         <f t="shared" si="0"/>
         <v>00:29:10</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K39" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>90</v>
       </c>
@@ -3702,8 +3860,12 @@
         <f t="shared" si="0"/>
         <v>00:29:54</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K40" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>92</v>
       </c>
@@ -3733,8 +3895,12 @@
         <f t="shared" si="0"/>
         <v>00:29:57</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K41" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>94</v>
       </c>
@@ -3766,8 +3932,12 @@
         <f t="shared" si="0"/>
         <v>00:30:01</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K42" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>81</v>
       </c>
@@ -3799,8 +3969,12 @@
         <f t="shared" si="0"/>
         <v>00:30:03</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K43" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>100</v>
       </c>
@@ -3830,8 +4004,12 @@
         <f t="shared" si="0"/>
         <v>00:30:15</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K44" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>54</v>
       </c>
@@ -3861,8 +4039,12 @@
         <f t="shared" si="0"/>
         <v>00:30:18</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K45" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>103</v>
       </c>
@@ -3892,8 +4074,12 @@
         <f t="shared" si="0"/>
         <v>00:30:20</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K46" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>105</v>
       </c>
@@ -3923,8 +4109,12 @@
         <f t="shared" si="0"/>
         <v>00:30:49</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K47" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>107</v>
       </c>
@@ -3956,8 +4146,12 @@
         <f t="shared" si="0"/>
         <v>00:30:54</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K48" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>109</v>
       </c>
@@ -3987,8 +4181,12 @@
         <f t="shared" si="0"/>
         <v>00:30:57</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K49" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>111</v>
       </c>
@@ -4020,8 +4218,12 @@
         <f t="shared" si="0"/>
         <v>00:30:58</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K50" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>114</v>
       </c>
@@ -4051,8 +4253,12 @@
         <f t="shared" si="0"/>
         <v>00:30:58</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K51" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>116</v>
       </c>
@@ -4084,8 +4290,12 @@
         <f t="shared" si="0"/>
         <v>00:31:20</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K52" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>118</v>
       </c>
@@ -4115,8 +4325,12 @@
         <f t="shared" si="0"/>
         <v>00:31:23</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K53" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>120</v>
       </c>
@@ -4146,8 +4360,12 @@
         <f t="shared" si="0"/>
         <v>00:31:30</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K54" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>26</v>
       </c>
@@ -4177,8 +4395,12 @@
         <f t="shared" si="0"/>
         <v>00:31:31</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K55" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>123</v>
       </c>
@@ -4210,8 +4432,12 @@
         <f t="shared" si="0"/>
         <v>00:31:49</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K56" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>125</v>
       </c>
@@ -4243,8 +4469,12 @@
         <f t="shared" si="0"/>
         <v>00:31:58</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K57" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>127</v>
       </c>
@@ -4276,8 +4506,12 @@
         <f t="shared" si="0"/>
         <v>00:32:00</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K58" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>130</v>
       </c>
@@ -4307,8 +4541,12 @@
         <f t="shared" si="0"/>
         <v>00:32:02</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K59" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>132</v>
       </c>
@@ -4340,8 +4578,12 @@
         <f t="shared" si="0"/>
         <v>00:32:28</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K60" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>135</v>
       </c>
@@ -4371,8 +4613,12 @@
         <f t="shared" si="0"/>
         <v>00:32:33</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K61" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>137</v>
       </c>
@@ -4404,8 +4650,12 @@
         <f t="shared" si="0"/>
         <v>00:32:40</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K62" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>139</v>
       </c>
@@ -4437,8 +4687,12 @@
         <f t="shared" si="0"/>
         <v>00:32:46</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K63" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>141</v>
       </c>
@@ -4470,8 +4724,12 @@
         <f t="shared" si="0"/>
         <v>00:32:49</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K64" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>145</v>
       </c>
@@ -4501,8 +4759,12 @@
         <f t="shared" si="0"/>
         <v>00:33:11</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K65" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>105</v>
       </c>
@@ -4532,8 +4794,12 @@
         <f t="shared" si="0"/>
         <v>00:33:16</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K66" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>148</v>
       </c>
@@ -4562,11 +4828,15 @@
         <v>7</v>
       </c>
       <c r="J67" s="12" t="str">
-        <f t="shared" ref="J67:J86" si="1">TEXT(F67,"hh:mm:ss")</f>
+        <f t="shared" ref="J67:J86" si="2">TEXT(F67,"hh:mm:ss")</f>
         <v>00:33:34</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K67" t="str">
+        <f t="shared" ref="K67:K86" si="3">IF(LEFT(D67,1)="M","M","F")</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>150</v>
       </c>
@@ -4595,11 +4865,15 @@
         <v>11</v>
       </c>
       <c r="J68" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:33:37</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K68" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>151</v>
       </c>
@@ -4626,11 +4900,15 @@
         <v>9</v>
       </c>
       <c r="J69" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:34:08</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K69" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>153</v>
       </c>
@@ -4657,11 +4935,15 @@
         <v>8</v>
       </c>
       <c r="J70" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:34:30</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K70" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>155</v>
       </c>
@@ -4690,11 +4972,15 @@
         <v>8</v>
       </c>
       <c r="J71" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:35:12</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K71" t="str">
+        <f t="shared" si="3"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>158</v>
       </c>
@@ -4721,11 +5007,15 @@
         <v>9</v>
       </c>
       <c r="J72" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:35:53</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K72" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>160</v>
       </c>
@@ -4752,11 +5042,15 @@
         <v>10</v>
       </c>
       <c r="J73" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:35:55</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K73" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>162</v>
       </c>
@@ -4785,11 +5079,15 @@
         <v>11</v>
       </c>
       <c r="J74" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:36:47</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K74" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>165</v>
       </c>
@@ -4818,11 +5116,15 @@
         <v>3</v>
       </c>
       <c r="J75" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:36:53</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K75" t="str">
+        <f t="shared" si="3"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>118</v>
       </c>
@@ -4849,11 +5151,15 @@
         <v>10</v>
       </c>
       <c r="J76" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:37:08</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K76" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>168</v>
       </c>
@@ -4880,11 +5186,15 @@
         <v>1</v>
       </c>
       <c r="J77" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:37:18</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K77" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>171</v>
       </c>
@@ -4913,11 +5223,15 @@
         <v>2</v>
       </c>
       <c r="J78" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:37:27</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K78" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>173</v>
       </c>
@@ -4944,11 +5258,15 @@
         <v>11</v>
       </c>
       <c r="J79" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:37:28</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K79" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>130</v>
       </c>
@@ -4975,11 +5293,15 @@
         <v>12</v>
       </c>
       <c r="J80" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:38:38</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K80" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>175</v>
       </c>
@@ -5006,11 +5328,15 @@
         <v>1</v>
       </c>
       <c r="J81" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:38:44</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K81" t="str">
+        <f t="shared" si="3"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>178</v>
       </c>
@@ -5039,11 +5365,15 @@
         <v>12</v>
       </c>
       <c r="J82" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:38:55</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K82" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>180</v>
       </c>
@@ -5070,11 +5400,15 @@
         <v>13</v>
       </c>
       <c r="J83" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:40:30</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K83" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>182</v>
       </c>
@@ -5103,11 +5437,15 @@
         <v>14</v>
       </c>
       <c r="J84" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:44:49</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K84" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>185</v>
       </c>
@@ -5136,11 +5474,15 @@
         <v>17</v>
       </c>
       <c r="J85" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:44:52</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K85" t="str">
+        <f t="shared" si="3"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>38</v>
       </c>
@@ -5169,8 +5511,12 @@
         <v>18</v>
       </c>
       <c r="J86" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:44:55</v>
+      </c>
+      <c r="K86" t="str">
+        <f t="shared" si="3"/>
+        <v>M</v>
       </c>
     </row>
   </sheetData>

--- a/results/Px5.xlsx
+++ b/results/Px5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sx5standings\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E1B6EC-E0CD-4341-A6D9-D4B5D9790214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11D811E-9EB7-4F0F-A404-6941306C799C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2037,7 +2037,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2067,9 +2067,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
@@ -2421,7 +2418,7 @@
   <dimension ref="A1:K86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2453,7 +2450,7 @@
       <c r="E1" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>187</v>
       </c>
       <c r="G1" s="8" t="s">
@@ -2486,7 +2483,7 @@
       <c r="E2" s="4">
         <v>652</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="10">
         <v>1.4572E-2</v>
       </c>
       <c r="G2" s="4">
@@ -2498,7 +2495,7 @@
       <c r="I2" s="4">
         <v>1</v>
       </c>
-      <c r="J2" s="12" t="str">
+      <c r="J2" s="11" t="str">
         <f>TEXT(F2,"hh:mm:ss")</f>
         <v>00:20:59</v>
       </c>
@@ -2518,10 +2515,10 @@
       <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="12">
         <v>93</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>1.4688E-2</v>
       </c>
       <c r="G3" s="4">
@@ -2533,7 +2530,7 @@
       <c r="I3" s="4">
         <v>2</v>
       </c>
-      <c r="J3" s="12" t="str">
+      <c r="J3" s="11" t="str">
         <f t="shared" ref="J3:J66" si="0">TEXT(F3,"hh:mm:ss")</f>
         <v>00:21:09</v>
       </c>
@@ -2556,7 +2553,7 @@
       <c r="E4" s="4">
         <v>577</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>1.4768999999999999E-2</v>
       </c>
       <c r="G4" s="4">
@@ -2568,7 +2565,7 @@
       <c r="I4" s="4">
         <v>3</v>
       </c>
-      <c r="J4" s="12" t="str">
+      <c r="J4" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00:21:16</v>
       </c>
@@ -2588,10 +2585,10 @@
       <c r="D5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>89</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>1.5011999999999999E-2</v>
       </c>
       <c r="G5" s="4">
@@ -2603,7 +2600,7 @@
       <c r="I5" s="4">
         <v>4</v>
       </c>
-      <c r="J5" s="12" t="str">
+      <c r="J5" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00:21:37</v>
       </c>
@@ -2628,7 +2625,7 @@
       <c r="E6" s="4">
         <v>674</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>1.5405E-2</v>
       </c>
       <c r="G6" s="4">
@@ -2640,7 +2637,7 @@
       <c r="I6" s="4">
         <v>5</v>
       </c>
-      <c r="J6" s="12" t="str">
+      <c r="J6" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00:22:11</v>
       </c>
@@ -2663,7 +2660,7 @@
       <c r="E7" s="4">
         <v>657</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>1.5879999999999998E-2</v>
       </c>
       <c r="G7" s="4">
@@ -2675,7 +2672,7 @@
       <c r="I7" s="4">
         <v>6</v>
       </c>
-      <c r="J7" s="12" t="str">
+      <c r="J7" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00:22:52</v>
       </c>
@@ -2698,7 +2695,7 @@
       <c r="E8" s="4">
         <v>116</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>1.5914000000000001E-2</v>
       </c>
       <c r="G8" s="4">
@@ -2710,7 +2707,7 @@
       <c r="I8" s="4">
         <v>1</v>
       </c>
-      <c r="J8" s="12" t="str">
+      <c r="J8" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00:22:55</v>
       </c>
@@ -2733,7 +2730,7 @@
       <c r="E9" s="4">
         <v>585</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>1.5925999999999999E-2</v>
       </c>
       <c r="G9" s="4">
@@ -2745,7 +2742,7 @@
       <c r="I9" s="4">
         <v>2</v>
       </c>
-      <c r="J9" s="12" t="str">
+      <c r="J9" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00:22:56</v>
       </c>
@@ -2770,7 +2767,7 @@
       <c r="E10" s="4">
         <v>569</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>1.5949000000000001E-2</v>
       </c>
       <c r="G10" s="4">
@@ -2782,7 +2779,7 @@
       <c r="I10" s="4">
         <v>1</v>
       </c>
-      <c r="J10" s="12" t="str">
+      <c r="J10" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00:22:58</v>
       </c>
@@ -2807,7 +2804,7 @@
       <c r="E11" s="4">
         <v>584</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <v>1.6076E-2</v>
       </c>
       <c r="G11" s="4">
@@ -2819,7 +2816,7 @@
       <c r="I11" s="4">
         <v>7</v>
       </c>
-      <c r="J11" s="12" t="str">
+      <c r="J11" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00:23:09</v>
       </c>
@@ -2844,7 +2841,7 @@
       <c r="E12" s="4">
         <v>137</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <v>1.6447E-2</v>
       </c>
       <c r="G12" s="4">
@@ -2856,7 +2853,7 @@
       <c r="I12" s="4">
         <v>3</v>
       </c>
-      <c r="J12" s="12" t="str">
+      <c r="J12" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00:23:41</v>
       </c>
@@ -2879,7 +2876,7 @@
       <c r="E13" s="4">
         <v>611</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <v>1.6528000000000001E-2</v>
       </c>
       <c r="G13" s="4">
@@ -2891,7 +2888,7 @@
       <c r="I13" s="4">
         <v>1</v>
       </c>
-      <c r="J13" s="12" t="str">
+      <c r="J13" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00:23:48</v>
       </c>
@@ -2916,7 +2913,7 @@
       <c r="E14" s="4">
         <v>668</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <v>1.6643999999999999E-2</v>
       </c>
       <c r="G14" s="4">
@@ -2928,7 +2925,7 @@
       <c r="I14" s="4">
         <v>2</v>
       </c>
-      <c r="J14" s="12" t="str">
+      <c r="J14" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00:23:58</v>
       </c>
@@ -2951,7 +2948,7 @@
       <c r="E15" s="4">
         <v>682</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="10">
         <v>1.6677999999999998E-2</v>
       </c>
       <c r="G15" s="4">
@@ -2963,7 +2960,7 @@
       <c r="I15" s="4">
         <v>4</v>
       </c>
-      <c r="J15" s="12" t="str">
+      <c r="J15" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00:24:01</v>
       </c>
@@ -2986,7 +2983,7 @@
       <c r="E16" s="4">
         <v>82</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <v>1.6712999999999999E-2</v>
       </c>
       <c r="G16" s="4">
@@ -2998,7 +2995,7 @@
       <c r="I16" s="4">
         <v>8</v>
       </c>
-      <c r="J16" s="12" t="str">
+      <c r="J16" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00:24:04</v>
       </c>
@@ -3023,7 +3020,7 @@
       <c r="E17" s="4">
         <v>661</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="10">
         <v>1.6771000000000001E-2</v>
       </c>
       <c r="G17" s="4">
@@ -3035,7 +3032,7 @@
       <c r="I17" s="4">
         <v>1</v>
       </c>
-      <c r="J17" s="12" t="str">
+      <c r="J17" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00:24:09</v>
       </c>
@@ -3060,7 +3057,7 @@
       <c r="E18" s="4">
         <v>133</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="10">
         <v>1.6898E-2</v>
       </c>
       <c r="G18" s="4">
@@ -3072,7 +3069,7 @@
       <c r="I18" s="4">
         <v>1</v>
       </c>
-      <c r="J18" s="12" t="str">
+      <c r="J18" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00:24:20</v>
       </c>
@@ -3095,7 +3092,7 @@
       <c r="E19" s="4">
         <v>598</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="10">
         <v>1.7211000000000001E-2</v>
       </c>
       <c r="G19" s="4">
@@ -3107,7 +3104,7 @@
       <c r="I19" s="4">
         <v>2</v>
       </c>
-      <c r="J19" s="12" t="str">
+      <c r="J19" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00:24:47</v>
       </c>
@@ -3127,10 +3124,10 @@
       <c r="D20" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="12">
         <v>87</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="10">
         <v>1.7245E-2</v>
       </c>
       <c r="G20" s="4">
@@ -3142,7 +3139,7 @@
       <c r="I20" s="4">
         <v>9</v>
       </c>
-      <c r="J20" s="12" t="str">
+      <c r="J20" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00:24:50</v>
       </c>
@@ -3167,7 +3164,7 @@
       <c r="E21" s="4">
         <v>635</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="10">
         <v>1.7627E-2</v>
       </c>
       <c r="G21" s="4">
@@ -3179,7 +3176,7 @@
       <c r="I21" s="4">
         <v>10</v>
       </c>
-      <c r="J21" s="12" t="str">
+      <c r="J21" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00:25:23</v>
       </c>
@@ -3202,7 +3199,7 @@
       <c r="E22" s="4">
         <v>625</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="10">
         <v>1.7766000000000001E-2</v>
       </c>
       <c r="G22" s="4">
@@ -3214,7 +3211,7 @@
       <c r="I22" s="4">
         <v>2</v>
       </c>
-      <c r="J22" s="12" t="str">
+      <c r="J22" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00:25:35</v>
       </c>
@@ -3237,7 +3234,7 @@
       <c r="E23" s="4">
         <v>97</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="10">
         <v>1.8275E-2</v>
       </c>
       <c r="G23" s="4">
@@ -3249,7 +3246,7 @@
       <c r="I23" s="4">
         <v>3</v>
       </c>
-      <c r="J23" s="12" t="str">
+      <c r="J23" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00:26:19</v>
       </c>
@@ -3272,7 +3269,7 @@
       <c r="E24" s="4">
         <v>556</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="10">
         <v>1.8367999999999999E-2</v>
       </c>
       <c r="G24" s="4">
@@ -3284,7 +3281,7 @@
       <c r="I24" s="4">
         <v>5</v>
       </c>
-      <c r="J24" s="12" t="str">
+      <c r="J24" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00:26:27</v>
       </c>
@@ -3307,7 +3304,7 @@
       <c r="E25" s="4">
         <v>601</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="10">
         <v>1.8426000000000001E-2</v>
       </c>
       <c r="G25" s="4">
@@ -3319,7 +3316,7 @@
       <c r="I25" s="4">
         <v>3</v>
       </c>
-      <c r="J25" s="12" t="str">
+      <c r="J25" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00:26:32</v>
       </c>
@@ -3344,7 +3341,7 @@
       <c r="E26" s="4">
         <v>656</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="10">
         <v>1.8506999999999999E-2</v>
       </c>
       <c r="G26" s="4">
@@ -3356,7 +3353,7 @@
       <c r="I26" s="4">
         <v>3</v>
       </c>
-      <c r="J26" s="12" t="str">
+      <c r="J26" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00:26:39</v>
       </c>
@@ -3379,7 +3376,7 @@
       <c r="E27" s="4">
         <v>641</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="10">
         <v>1.8565000000000002E-2</v>
       </c>
       <c r="G27" s="4">
@@ -3391,7 +3388,7 @@
       <c r="I27" s="4">
         <v>11</v>
       </c>
-      <c r="J27" s="12" t="str">
+      <c r="J27" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00:26:44</v>
       </c>
@@ -3416,7 +3413,7 @@
       <c r="E28" s="4">
         <v>96</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="10">
         <v>1.8831000000000001E-2</v>
       </c>
       <c r="G28" s="4">
@@ -3428,7 +3425,7 @@
       <c r="I28" s="4">
         <v>12</v>
       </c>
-      <c r="J28" s="12" t="str">
+      <c r="J28" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00:27:07</v>
       </c>
@@ -3453,7 +3450,7 @@
       <c r="E29" s="4">
         <v>571</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="10">
         <v>1.8924E-2</v>
       </c>
       <c r="G29" s="4">
@@ -3465,7 +3462,7 @@
       <c r="I29" s="4">
         <v>13</v>
       </c>
-      <c r="J29" s="12" t="str">
+      <c r="J29" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00:27:15</v>
       </c>
@@ -3488,7 +3485,7 @@
       <c r="E30" s="4">
         <v>57</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="10">
         <v>1.8992999999999999E-2</v>
       </c>
       <c r="G30" s="4">
@@ -3500,7 +3497,7 @@
       <c r="I30" s="4">
         <v>4</v>
       </c>
-      <c r="J30" s="12" t="str">
+      <c r="J30" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00:27:21</v>
       </c>
@@ -3523,7 +3520,7 @@
       <c r="E31" s="4">
         <v>680</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="10">
         <v>1.9061999999999999E-2</v>
       </c>
       <c r="G31" s="4">
@@ -3535,7 +3532,7 @@
       <c r="I31" s="4">
         <v>1</v>
       </c>
-      <c r="J31" s="12" t="str">
+      <c r="J31" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00:27:27</v>
       </c>
@@ -3560,7 +3557,7 @@
       <c r="E32" s="4">
         <v>574</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="10">
         <v>1.9387000000000001E-2</v>
       </c>
       <c r="G32" s="4">
@@ -3572,7 +3569,7 @@
       <c r="I32" s="4">
         <v>5</v>
       </c>
-      <c r="J32" s="12" t="str">
+      <c r="J32" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00:27:55</v>
       </c>
@@ -3595,7 +3592,7 @@
       <c r="E33" s="4">
         <v>626</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F33" s="10">
         <v>1.941E-2</v>
       </c>
       <c r="G33" s="4">
@@ -3607,7 +3604,7 @@
       <c r="I33" s="4">
         <v>14</v>
       </c>
-      <c r="J33" s="12" t="str">
+      <c r="J33" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00:27:57</v>
       </c>
@@ -3630,7 +3627,7 @@
       <c r="E34" s="4">
         <v>591</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="10">
         <v>1.9443999999999999E-2</v>
       </c>
       <c r="G34" s="4">
@@ -3642,7 +3639,7 @@
       <c r="I34" s="4">
         <v>6</v>
       </c>
-      <c r="J34" s="12" t="str">
+      <c r="J34" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00:28:00</v>
       </c>
@@ -3667,7 +3664,7 @@
       <c r="E35" s="4">
         <v>620</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="10">
         <v>1.9525000000000001E-2</v>
       </c>
       <c r="G35" s="4">
@@ -3679,7 +3676,7 @@
       <c r="I35" s="4">
         <v>4</v>
       </c>
-      <c r="J35" s="12" t="str">
+      <c r="J35" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00:28:07</v>
       </c>
@@ -3704,7 +3701,7 @@
       <c r="E36" s="4">
         <v>555</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="10">
         <v>1.9571999999999999E-2</v>
       </c>
       <c r="G36" s="4">
@@ -3716,7 +3713,7 @@
       <c r="I36" s="4">
         <v>5</v>
       </c>
-      <c r="J36" s="12" t="str">
+      <c r="J36" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00:28:11</v>
       </c>
@@ -3739,7 +3736,7 @@
       <c r="E37" s="4">
         <v>599</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="10">
         <v>1.9931000000000001E-2</v>
       </c>
       <c r="G37" s="4">
@@ -3751,7 +3748,7 @@
       <c r="I37" s="4">
         <v>6</v>
       </c>
-      <c r="J37" s="12" t="str">
+      <c r="J37" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00:28:42</v>
       </c>
@@ -3774,7 +3771,7 @@
       <c r="E38" s="4">
         <v>642</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="10">
         <v>2.0011999999999999E-2</v>
       </c>
       <c r="G38" s="4">
@@ -3786,7 +3783,7 @@
       <c r="I38" s="4">
         <v>15</v>
       </c>
-      <c r="J38" s="12" t="str">
+      <c r="J38" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00:28:49</v>
       </c>
@@ -3809,7 +3806,7 @@
       <c r="E39" s="4">
         <v>615</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F39" s="10">
         <v>2.0254999999999999E-2</v>
       </c>
       <c r="G39" s="4">
@@ -3821,7 +3818,7 @@
       <c r="I39" s="4">
         <v>6</v>
       </c>
-      <c r="J39" s="12" t="str">
+      <c r="J39" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00:29:10</v>
       </c>
@@ -3844,7 +3841,7 @@
       <c r="E40" s="4">
         <v>686</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F40" s="10">
         <v>2.0764000000000001E-2</v>
       </c>
       <c r="G40" s="4">
@@ -3856,7 +3853,7 @@
       <c r="I40" s="4">
         <v>7</v>
       </c>
-      <c r="J40" s="12" t="str">
+      <c r="J40" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00:29:54</v>
       </c>
@@ -3879,7 +3876,7 @@
       <c r="E41" s="4">
         <v>663</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F41" s="10">
         <v>2.0799000000000002E-2</v>
       </c>
       <c r="G41" s="4">
@@ -3891,7 +3888,7 @@
       <c r="I41" s="4">
         <v>2</v>
       </c>
-      <c r="J41" s="12" t="str">
+      <c r="J41" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00:29:57</v>
       </c>
@@ -3913,10 +3910,10 @@
       <c r="D42" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E42" s="12">
         <v>71</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="10">
         <v>2.0844999999999999E-2</v>
       </c>
       <c r="G42" s="4">
@@ -3928,7 +3925,7 @@
       <c r="I42" s="4">
         <v>4</v>
       </c>
-      <c r="J42" s="12" t="str">
+      <c r="J42" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00:30:01</v>
       </c>
@@ -3953,7 +3950,7 @@
       <c r="E43" s="4">
         <v>553</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F43" s="10">
         <v>2.0868000000000001E-2</v>
       </c>
       <c r="G43" s="4">
@@ -3965,7 +3962,7 @@
       <c r="I43" s="4">
         <v>8</v>
       </c>
-      <c r="J43" s="12" t="str">
+      <c r="J43" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00:30:03</v>
       </c>
@@ -3988,7 +3985,7 @@
       <c r="E44" s="4">
         <v>612</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F44" s="10">
         <v>2.1007000000000001E-2</v>
       </c>
       <c r="G44" s="4">
@@ -4000,7 +3997,7 @@
       <c r="I44" s="4">
         <v>9</v>
       </c>
-      <c r="J44" s="12" t="str">
+      <c r="J44" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00:30:15</v>
       </c>
@@ -4023,7 +4020,7 @@
       <c r="E45" s="4">
         <v>126</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F45" s="10">
         <v>2.1042000000000002E-2</v>
       </c>
       <c r="G45" s="4">
@@ -4035,7 +4032,7 @@
       <c r="I45" s="4">
         <v>7</v>
       </c>
-      <c r="J45" s="12" t="str">
+      <c r="J45" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00:30:18</v>
       </c>
@@ -4058,7 +4055,7 @@
       <c r="E46" s="4">
         <v>573</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F46" s="10">
         <v>2.1065E-2</v>
       </c>
       <c r="G46" s="4">
@@ -4070,7 +4067,7 @@
       <c r="I46" s="4">
         <v>8</v>
       </c>
-      <c r="J46" s="12" t="str">
+      <c r="J46" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00:30:20</v>
       </c>
@@ -4093,7 +4090,7 @@
       <c r="E47" s="4">
         <v>636</v>
       </c>
-      <c r="F47" s="11">
+      <c r="F47" s="10">
         <v>2.1399999999999999E-2</v>
       </c>
       <c r="G47" s="4">
@@ -4105,7 +4102,7 @@
       <c r="I47" s="4">
         <v>10</v>
       </c>
-      <c r="J47" s="12" t="str">
+      <c r="J47" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00:30:49</v>
       </c>
@@ -4130,7 +4127,7 @@
       <c r="E48" s="4">
         <v>633</v>
       </c>
-      <c r="F48" s="11">
+      <c r="F48" s="10">
         <v>2.1458000000000001E-2</v>
       </c>
       <c r="G48" s="4">
@@ -4142,7 +4139,7 @@
       <c r="I48" s="4">
         <v>11</v>
       </c>
-      <c r="J48" s="12" t="str">
+      <c r="J48" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00:30:54</v>
       </c>
@@ -4165,7 +4162,7 @@
       <c r="E49" s="4">
         <v>610</v>
       </c>
-      <c r="F49" s="11">
+      <c r="F49" s="10">
         <v>2.1493000000000002E-2</v>
       </c>
       <c r="G49" s="4">
@@ -4177,7 +4174,7 @@
       <c r="I49" s="4">
         <v>9</v>
       </c>
-      <c r="J49" s="12" t="str">
+      <c r="J49" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00:30:57</v>
       </c>
@@ -4202,7 +4199,7 @@
       <c r="E50" s="4">
         <v>639</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F50" s="10">
         <v>2.1505E-2</v>
       </c>
       <c r="G50" s="4">
@@ -4214,7 +4211,7 @@
       <c r="I50" s="4">
         <v>2</v>
       </c>
-      <c r="J50" s="12" t="str">
+      <c r="J50" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00:30:58</v>
       </c>
@@ -4237,7 +4234,7 @@
       <c r="E51" s="4">
         <v>672</v>
       </c>
-      <c r="F51" s="11">
+      <c r="F51" s="10">
         <v>2.1505E-2</v>
       </c>
       <c r="G51" s="4">
@@ -4249,7 +4246,7 @@
       <c r="I51" s="4">
         <v>10</v>
       </c>
-      <c r="J51" s="12" t="str">
+      <c r="J51" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00:30:58</v>
       </c>
@@ -4274,7 +4271,7 @@
       <c r="E52" s="4">
         <v>638</v>
       </c>
-      <c r="F52" s="11">
+      <c r="F52" s="10">
         <v>2.1759000000000001E-2</v>
       </c>
       <c r="G52" s="4">
@@ -4286,7 +4283,7 @@
       <c r="I52" s="4">
         <v>12</v>
       </c>
-      <c r="J52" s="12" t="str">
+      <c r="J52" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00:31:20</v>
       </c>
@@ -4309,7 +4306,7 @@
       <c r="E53" s="4">
         <v>691</v>
       </c>
-      <c r="F53" s="11">
+      <c r="F53" s="10">
         <v>2.1794000000000001E-2</v>
       </c>
       <c r="G53" s="4">
@@ -4321,7 +4318,7 @@
       <c r="I53" s="4">
         <v>5</v>
       </c>
-      <c r="J53" s="12" t="str">
+      <c r="J53" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00:31:23</v>
       </c>
@@ -4344,7 +4341,7 @@
       <c r="E54" s="4">
         <v>677</v>
       </c>
-      <c r="F54" s="11">
+      <c r="F54" s="10">
         <v>2.1874999999999999E-2</v>
       </c>
       <c r="G54" s="4">
@@ -4356,7 +4353,7 @@
       <c r="I54" s="4">
         <v>3</v>
       </c>
-      <c r="J54" s="12" t="str">
+      <c r="J54" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00:31:30</v>
       </c>
@@ -4379,7 +4376,7 @@
       <c r="E55" s="4">
         <v>676</v>
       </c>
-      <c r="F55" s="11">
+      <c r="F55" s="10">
         <v>2.1887E-2</v>
       </c>
       <c r="G55" s="4">
@@ -4391,7 +4388,7 @@
       <c r="I55" s="4">
         <v>13</v>
       </c>
-      <c r="J55" s="12" t="str">
+      <c r="J55" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00:31:31</v>
       </c>
@@ -4416,7 +4413,7 @@
       <c r="E56" s="4">
         <v>670</v>
       </c>
-      <c r="F56" s="11">
+      <c r="F56" s="10">
         <v>2.2095E-2</v>
       </c>
       <c r="G56" s="4">
@@ -4428,7 +4425,7 @@
       <c r="I56" s="4">
         <v>4</v>
       </c>
-      <c r="J56" s="12" t="str">
+      <c r="J56" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00:31:49</v>
       </c>
@@ -4453,7 +4450,7 @@
       <c r="E57" s="4">
         <v>619</v>
       </c>
-      <c r="F57" s="11">
+      <c r="F57" s="10">
         <v>2.2199E-2</v>
       </c>
       <c r="G57" s="4">
@@ -4465,7 +4462,7 @@
       <c r="I57" s="4">
         <v>5</v>
       </c>
-      <c r="J57" s="12" t="str">
+      <c r="J57" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00:31:58</v>
       </c>
@@ -4490,7 +4487,7 @@
       <c r="E58" s="4">
         <v>659</v>
       </c>
-      <c r="F58" s="11">
+      <c r="F58" s="10">
         <v>2.2221999999999999E-2</v>
       </c>
       <c r="G58" s="4">
@@ -4502,7 +4499,7 @@
       <c r="I58" s="4">
         <v>14</v>
       </c>
-      <c r="J58" s="12" t="str">
+      <c r="J58" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00:32:00</v>
       </c>
@@ -4525,7 +4522,7 @@
       <c r="E59" s="4">
         <v>685</v>
       </c>
-      <c r="F59" s="11">
+      <c r="F59" s="10">
         <v>2.2245000000000001E-2</v>
       </c>
       <c r="G59" s="4">
@@ -4537,7 +4534,7 @@
       <c r="I59" s="4">
         <v>6</v>
       </c>
-      <c r="J59" s="12" t="str">
+      <c r="J59" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00:32:02</v>
       </c>
@@ -4562,7 +4559,7 @@
       <c r="E60" s="4">
         <v>548</v>
       </c>
-      <c r="F60" s="11">
+      <c r="F60" s="10">
         <v>2.2546E-2</v>
       </c>
       <c r="G60" s="4">
@@ -4574,7 +4571,7 @@
       <c r="I60" s="4">
         <v>15</v>
       </c>
-      <c r="J60" s="12" t="str">
+      <c r="J60" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00:32:28</v>
       </c>
@@ -4597,7 +4594,7 @@
       <c r="E61" s="4">
         <v>575</v>
       </c>
-      <c r="F61" s="11">
+      <c r="F61" s="10">
         <v>2.2603999999999999E-2</v>
       </c>
       <c r="G61" s="4">
@@ -4609,7 +4606,7 @@
       <c r="I61" s="4">
         <v>16</v>
       </c>
-      <c r="J61" s="12" t="str">
+      <c r="J61" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00:32:33</v>
       </c>
@@ -4634,7 +4631,7 @@
       <c r="E62" s="4">
         <v>572</v>
       </c>
-      <c r="F62" s="11">
+      <c r="F62" s="10">
         <v>2.2685E-2</v>
       </c>
       <c r="G62" s="4">
@@ -4646,7 +4643,7 @@
       <c r="I62" s="4">
         <v>16</v>
       </c>
-      <c r="J62" s="12" t="str">
+      <c r="J62" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00:32:40</v>
       </c>
@@ -4671,7 +4668,7 @@
       <c r="E63" s="4">
         <v>634</v>
       </c>
-      <c r="F63" s="11">
+      <c r="F63" s="10">
         <v>2.2755000000000001E-2</v>
       </c>
       <c r="G63" s="4">
@@ -4683,7 +4680,7 @@
       <c r="I63" s="4">
         <v>7</v>
       </c>
-      <c r="J63" s="12" t="str">
+      <c r="J63" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00:32:46</v>
       </c>
@@ -4705,10 +4702,10 @@
       <c r="D64" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="E64" s="13">
+      <c r="E64" s="12">
         <v>72</v>
       </c>
-      <c r="F64" s="11">
+      <c r="F64" s="10">
         <v>2.2789E-2</v>
       </c>
       <c r="G64" s="4">
@@ -4720,7 +4717,7 @@
       <c r="I64" s="4">
         <v>6</v>
       </c>
-      <c r="J64" s="12" t="str">
+      <c r="J64" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00:32:49</v>
       </c>
@@ -4743,7 +4740,7 @@
       <c r="E65" s="4">
         <v>688</v>
       </c>
-      <c r="F65" s="11">
+      <c r="F65" s="10">
         <v>2.3043999999999999E-2</v>
       </c>
       <c r="G65" s="4">
@@ -4755,7 +4752,7 @@
       <c r="I65" s="4">
         <v>8</v>
       </c>
-      <c r="J65" s="12" t="str">
+      <c r="J65" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00:33:11</v>
       </c>
@@ -4778,7 +4775,7 @@
       <c r="E66" s="4">
         <v>597</v>
       </c>
-      <c r="F66" s="11">
+      <c r="F66" s="10">
         <v>2.3102000000000001E-2</v>
       </c>
       <c r="G66" s="4">
@@ -4790,7 +4787,7 @@
       <c r="I66" s="4">
         <v>7</v>
       </c>
-      <c r="J66" s="12" t="str">
+      <c r="J66" s="11" t="str">
         <f t="shared" si="0"/>
         <v>00:33:16</v>
       </c>
@@ -4815,7 +4812,7 @@
       <c r="E67" s="4">
         <v>557</v>
       </c>
-      <c r="F67" s="11">
+      <c r="F67" s="10">
         <v>2.3310000000000001E-2</v>
       </c>
       <c r="G67" s="4">
@@ -4827,7 +4824,7 @@
       <c r="I67" s="4">
         <v>7</v>
       </c>
-      <c r="J67" s="12" t="str">
+      <c r="J67" s="11" t="str">
         <f t="shared" ref="J67:J86" si="2">TEXT(F67,"hh:mm:ss")</f>
         <v>00:33:34</v>
       </c>
@@ -4852,7 +4849,7 @@
       <c r="E68" s="4">
         <v>582</v>
       </c>
-      <c r="F68" s="11">
+      <c r="F68" s="10">
         <v>2.3345000000000001E-2</v>
       </c>
       <c r="G68" s="4">
@@ -4864,7 +4861,7 @@
       <c r="I68" s="4">
         <v>11</v>
       </c>
-      <c r="J68" s="12" t="str">
+      <c r="J68" s="11" t="str">
         <f t="shared" si="2"/>
         <v>00:33:37</v>
       </c>
@@ -4887,7 +4884,7 @@
       <c r="E69" s="4">
         <v>609</v>
       </c>
-      <c r="F69" s="11">
+      <c r="F69" s="10">
         <v>2.3703999999999999E-2</v>
       </c>
       <c r="G69" s="4">
@@ -4899,7 +4896,7 @@
       <c r="I69" s="4">
         <v>9</v>
       </c>
-      <c r="J69" s="12" t="str">
+      <c r="J69" s="11" t="str">
         <f t="shared" si="2"/>
         <v>00:34:08</v>
       </c>
@@ -4922,7 +4919,7 @@
       <c r="E70" s="4">
         <v>679</v>
       </c>
-      <c r="F70" s="11">
+      <c r="F70" s="10">
         <v>2.3958E-2</v>
       </c>
       <c r="G70" s="4">
@@ -4934,7 +4931,7 @@
       <c r="I70" s="4">
         <v>8</v>
       </c>
-      <c r="J70" s="12" t="str">
+      <c r="J70" s="11" t="str">
         <f t="shared" si="2"/>
         <v>00:34:30</v>
       </c>
@@ -4959,7 +4956,7 @@
       <c r="E71" s="4">
         <v>576</v>
       </c>
-      <c r="F71" s="11">
+      <c r="F71" s="10">
         <v>2.4444E-2</v>
       </c>
       <c r="G71" s="4">
@@ -4971,7 +4968,7 @@
       <c r="I71" s="4">
         <v>8</v>
       </c>
-      <c r="J71" s="12" t="str">
+      <c r="J71" s="11" t="str">
         <f t="shared" si="2"/>
         <v>00:35:12</v>
       </c>
@@ -4994,7 +4991,7 @@
       <c r="E72" s="4">
         <v>552</v>
       </c>
-      <c r="F72" s="11">
+      <c r="F72" s="10">
         <v>2.4919E-2</v>
       </c>
       <c r="G72" s="4">
@@ -5006,7 +5003,7 @@
       <c r="I72" s="4">
         <v>9</v>
       </c>
-      <c r="J72" s="12" t="str">
+      <c r="J72" s="11" t="str">
         <f t="shared" si="2"/>
         <v>00:35:53</v>
       </c>
@@ -5029,7 +5026,7 @@
       <c r="E73" s="4">
         <v>614</v>
       </c>
-      <c r="F73" s="11">
+      <c r="F73" s="10">
         <v>2.4941999999999999E-2</v>
       </c>
       <c r="G73" s="4">
@@ -5041,7 +5038,7 @@
       <c r="I73" s="4">
         <v>10</v>
       </c>
-      <c r="J73" s="12" t="str">
+      <c r="J73" s="11" t="str">
         <f t="shared" si="2"/>
         <v>00:35:55</v>
       </c>
@@ -5066,7 +5063,7 @@
       <c r="E74" s="4">
         <v>136</v>
       </c>
-      <c r="F74" s="11">
+      <c r="F74" s="10">
         <v>2.5544000000000001E-2</v>
       </c>
       <c r="G74" s="4">
@@ -5078,7 +5075,7 @@
       <c r="I74" s="4">
         <v>11</v>
       </c>
-      <c r="J74" s="12" t="str">
+      <c r="J74" s="11" t="str">
         <f t="shared" si="2"/>
         <v>00:36:47</v>
       </c>
@@ -5103,7 +5100,7 @@
       <c r="E75" s="4">
         <v>658</v>
       </c>
-      <c r="F75" s="11">
+      <c r="F75" s="10">
         <v>2.5613E-2</v>
       </c>
       <c r="G75" s="4">
@@ -5115,7 +5112,7 @@
       <c r="I75" s="4">
         <v>3</v>
       </c>
-      <c r="J75" s="12" t="str">
+      <c r="J75" s="11" t="str">
         <f t="shared" si="2"/>
         <v>00:36:53</v>
       </c>
@@ -5138,7 +5135,7 @@
       <c r="E76" s="4">
         <v>119</v>
       </c>
-      <c r="F76" s="11">
+      <c r="F76" s="10">
         <v>2.5787000000000001E-2</v>
       </c>
       <c r="G76" s="4">
@@ -5150,7 +5147,7 @@
       <c r="I76" s="4">
         <v>10</v>
       </c>
-      <c r="J76" s="12" t="str">
+      <c r="J76" s="11" t="str">
         <f t="shared" si="2"/>
         <v>00:37:08</v>
       </c>
@@ -5173,7 +5170,7 @@
       <c r="E77" s="4">
         <v>622</v>
       </c>
-      <c r="F77" s="11">
+      <c r="F77" s="10">
         <v>2.5902999999999999E-2</v>
       </c>
       <c r="G77" s="4">
@@ -5185,7 +5182,7 @@
       <c r="I77" s="4">
         <v>1</v>
       </c>
-      <c r="J77" s="12" t="str">
+      <c r="J77" s="11" t="str">
         <f t="shared" si="2"/>
         <v>00:37:18</v>
       </c>
@@ -5210,7 +5207,7 @@
       <c r="E78" s="4">
         <v>60</v>
       </c>
-      <c r="F78" s="11">
+      <c r="F78" s="10">
         <v>2.6006999999999999E-2</v>
       </c>
       <c r="G78" s="4">
@@ -5222,7 +5219,7 @@
       <c r="I78" s="4">
         <v>2</v>
       </c>
-      <c r="J78" s="12" t="str">
+      <c r="J78" s="11" t="str">
         <f t="shared" si="2"/>
         <v>00:37:27</v>
       </c>
@@ -5245,7 +5242,7 @@
       <c r="E79" s="4">
         <v>590</v>
       </c>
-      <c r="F79" s="11">
+      <c r="F79" s="10">
         <v>2.6019E-2</v>
       </c>
       <c r="G79" s="4">
@@ -5257,7 +5254,7 @@
       <c r="I79" s="4">
         <v>11</v>
       </c>
-      <c r="J79" s="12" t="str">
+      <c r="J79" s="11" t="str">
         <f t="shared" si="2"/>
         <v>00:37:28</v>
       </c>
@@ -5280,7 +5277,7 @@
       <c r="E80" s="4">
         <v>623</v>
       </c>
-      <c r="F80" s="11">
+      <c r="F80" s="10">
         <v>2.6828999999999999E-2</v>
       </c>
       <c r="G80" s="4">
@@ -5292,7 +5289,7 @@
       <c r="I80" s="4">
         <v>12</v>
       </c>
-      <c r="J80" s="12" t="str">
+      <c r="J80" s="11" t="str">
         <f t="shared" si="2"/>
         <v>00:38:38</v>
       </c>
@@ -5315,7 +5312,7 @@
       <c r="E81" s="4">
         <v>131</v>
       </c>
-      <c r="F81" s="11">
+      <c r="F81" s="10">
         <v>2.6897999999999998E-2</v>
       </c>
       <c r="G81" s="4">
@@ -5327,7 +5324,7 @@
       <c r="I81" s="4">
         <v>1</v>
       </c>
-      <c r="J81" s="12" t="str">
+      <c r="J81" s="11" t="str">
         <f t="shared" si="2"/>
         <v>00:38:44</v>
       </c>
@@ -5352,7 +5349,7 @@
       <c r="E82" s="4">
         <v>628</v>
       </c>
-      <c r="F82" s="11">
+      <c r="F82" s="10">
         <v>2.7025E-2</v>
       </c>
       <c r="G82" s="4">
@@ -5364,7 +5361,7 @@
       <c r="I82" s="4">
         <v>12</v>
       </c>
-      <c r="J82" s="12" t="str">
+      <c r="J82" s="11" t="str">
         <f t="shared" si="2"/>
         <v>00:38:55</v>
       </c>
@@ -5387,7 +5384,7 @@
       <c r="E83" s="4">
         <v>606</v>
       </c>
-      <c r="F83" s="11">
+      <c r="F83" s="10">
         <v>2.8125000000000001E-2</v>
       </c>
       <c r="G83" s="4">
@@ -5399,7 +5396,7 @@
       <c r="I83" s="4">
         <v>13</v>
       </c>
-      <c r="J83" s="12" t="str">
+      <c r="J83" s="11" t="str">
         <f t="shared" si="2"/>
         <v>00:40:30</v>
       </c>
@@ -5424,7 +5421,7 @@
       <c r="E84" s="4">
         <v>602</v>
       </c>
-      <c r="F84" s="11">
+      <c r="F84" s="10">
         <v>3.1123000000000001E-2</v>
       </c>
       <c r="G84" s="4">
@@ -5436,7 +5433,7 @@
       <c r="I84" s="4">
         <v>14</v>
       </c>
-      <c r="J84" s="12" t="str">
+      <c r="J84" s="11" t="str">
         <f t="shared" si="2"/>
         <v>00:44:49</v>
       </c>
@@ -5461,7 +5458,7 @@
       <c r="E85" s="4">
         <v>603</v>
       </c>
-      <c r="F85" s="11">
+      <c r="F85" s="10">
         <v>3.1157000000000001E-2</v>
       </c>
       <c r="G85" s="4">
@@ -5473,7 +5470,7 @@
       <c r="I85" s="4">
         <v>17</v>
       </c>
-      <c r="J85" s="12" t="str">
+      <c r="J85" s="11" t="str">
         <f t="shared" si="2"/>
         <v>00:44:52</v>
       </c>
@@ -5498,7 +5495,7 @@
       <c r="E86" s="4">
         <v>586</v>
       </c>
-      <c r="F86" s="11">
+      <c r="F86" s="10">
         <v>3.1192000000000001E-2</v>
       </c>
       <c r="G86" s="4">
@@ -5510,7 +5507,7 @@
       <c r="I86" s="4">
         <v>18</v>
       </c>
-      <c r="J86" s="12" t="str">
+      <c r="J86" s="11" t="str">
         <f t="shared" si="2"/>
         <v>00:44:55</v>
       </c>
